--- a/raw-data/FH.IMT_DATA.2023.xlsx
+++ b/raw-data/FH.IMT_DATA.2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Library/CloudStorage/Box-Box/ECOBEAN/Experiments/Interrow Mowing Trial/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/raw-data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2025FADF-0A2D-1343-A592-5006A9A5F5C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A579DF62-9B41-E049-9730-CF30885FD249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19960" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="34560" windowHeight="19960" activeTab="5" xr2:uid="{D9C177FB-1461-5243-831C-27D0D02B7C1C}"/>
   </bookViews>
   <sheets>
     <sheet name="READMe" sheetId="6" r:id="rId1"/>
@@ -2585,7 +2585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4063C6D-BDF6-424B-A4AE-A143AF121699}">
   <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -21903,8 +21903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE8EB362-AF19-FD43-8315-33E261BE2CD8}">
   <dimension ref="A1:W41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N25" sqref="N25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22150,7 +22150,7 @@
         <v>2502.0131755522166</v>
       </c>
       <c r="W6">
-        <f t="shared" ref="W6:W41" si="4">S6*T6</f>
+        <f>S6*T6</f>
         <v>2804.3814678177018</v>
       </c>
     </row>
@@ -22187,11 +22187,11 @@
         <v>45</v>
       </c>
       <c r="K7" s="53">
-        <f t="shared" ref="K7:K41" si="5">((J7)/1.524*10000)</f>
+        <f t="shared" ref="K7:K41" si="4">((J7)/1.524*10000)</f>
         <v>295275.59055118111</v>
       </c>
       <c r="L7" s="53">
-        <f t="shared" ref="L7:L41" si="6">K7/2.471</f>
+        <f t="shared" ref="L7:L41" si="5">K7/2.471</f>
         <v>119496.39439545978</v>
       </c>
       <c r="M7">
@@ -22201,7 +22201,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <f t="shared" ref="O7:O41" si="7">(3.28*2)*2.5</f>
+        <f t="shared" ref="O7:O41" si="6">(3.28*2)*2.5</f>
         <v>16.399999999999999</v>
       </c>
       <c r="P7">
@@ -22209,19 +22209,19 @@
         <v>0.48017621145374451</v>
       </c>
       <c r="Q7">
-        <f t="shared" ref="Q7:Q41" si="8">P7/(O7/43560)</f>
+        <f t="shared" ref="Q7:Q41" si="7">P7/(O7/43560)</f>
         <v>1275.3948640807996</v>
       </c>
       <c r="R7">
-        <f t="shared" ref="R7:R41" si="9">Q7/60</f>
+        <f t="shared" ref="R7:R41" si="8">Q7/60</f>
         <v>21.256581068013325</v>
       </c>
       <c r="S7" s="53">
-        <f t="shared" ref="S7:S41" si="10">Q7*1.12085</f>
+        <f t="shared" ref="S7:S41" si="9">Q7*1.12085</f>
         <v>1429.5263334049641</v>
       </c>
       <c r="T7" s="46">
-        <f t="shared" ref="T7:T41" si="11">((100-0.00001)/(100-14))</f>
+        <f t="shared" ref="T7:T41" si="10">((100-0.00001)/(100-14))</f>
         <v>1.1627905813953487</v>
       </c>
       <c r="U7">
@@ -22233,7 +22233,7 @@
         <v>1483.0171355131547</v>
       </c>
       <c r="W7">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="W6:W41" si="11">S7*T7</f>
         <v>1662.2397563399195</v>
       </c>
     </row>
@@ -22270,11 +22270,11 @@
         <v>52</v>
       </c>
       <c r="K8" s="53">
+        <f t="shared" si="4"/>
+        <v>341207.34908136487</v>
+      </c>
+      <c r="L8" s="53">
         <f t="shared" si="5"/>
-        <v>341207.34908136487</v>
-      </c>
-      <c r="L8" s="53">
-        <f t="shared" si="6"/>
         <v>138084.72241253129</v>
       </c>
       <c r="M8">
@@ -22284,7 +22284,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P8">
@@ -22292,19 +22292,19 @@
         <v>0.5903083700440529</v>
       </c>
       <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>1567.9166218974967</v>
+      </c>
+      <c r="R8">
         <f t="shared" si="8"/>
-        <v>1567.9166218974967</v>
-      </c>
-      <c r="R8">
+        <v>26.131943698291611</v>
+      </c>
+      <c r="S8" s="53">
         <f t="shared" si="9"/>
-        <v>26.131943698291611</v>
-      </c>
-      <c r="S8" s="53">
+        <v>1757.399345653809</v>
+      </c>
+      <c r="T8" s="46">
         <f t="shared" si="10"/>
-        <v>1757.399345653809</v>
-      </c>
-      <c r="T8" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U8">
@@ -22316,7 +22316,7 @@
         <v>1823.1586803556213</v>
       </c>
       <c r="W8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2043.487406876598</v>
       </c>
     </row>
@@ -22353,11 +22353,11 @@
         <v>49</v>
       </c>
       <c r="K9" s="53">
+        <f t="shared" si="4"/>
+        <v>321522.3097112861</v>
+      </c>
+      <c r="L9" s="53">
         <f t="shared" si="5"/>
-        <v>321522.3097112861</v>
-      </c>
-      <c r="L9" s="53">
-        <f t="shared" si="6"/>
         <v>130118.29611950065</v>
       </c>
       <c r="M9">
@@ -22367,7 +22367,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P9">
@@ -22375,19 +22375,19 @@
         <v>0.39052863436123353</v>
       </c>
       <c r="Q9">
+        <f t="shared" si="7"/>
+        <v>1037.2821532180083</v>
+      </c>
+      <c r="R9">
         <f t="shared" si="8"/>
-        <v>1037.2821532180083</v>
-      </c>
-      <c r="R9">
+        <v>17.288035886966803</v>
+      </c>
+      <c r="S9" s="53">
         <f t="shared" si="9"/>
-        <v>17.288035886966803</v>
-      </c>
-      <c r="S9" s="53">
+        <v>1162.6377014344046</v>
+      </c>
+      <c r="T9" s="46">
         <f t="shared" si="10"/>
-        <v>1162.6377014344046</v>
-      </c>
-      <c r="T9" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U9">
@@ -22399,7 +22399,7 @@
         <v>1206.1419180113871</v>
       </c>
       <c r="W9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1351.9041688030632</v>
       </c>
     </row>
@@ -22436,11 +22436,11 @@
         <v>43</v>
       </c>
       <c r="K10" s="53">
+        <f t="shared" si="4"/>
+        <v>282152.23097112862</v>
+      </c>
+      <c r="L10" s="53">
         <f t="shared" si="5"/>
-        <v>282152.23097112862</v>
-      </c>
-      <c r="L10" s="53">
-        <f t="shared" si="6"/>
         <v>114185.44353343933</v>
       </c>
       <c r="M10">
@@ -22450,7 +22450,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P10">
@@ -22458,19 +22458,19 @@
         <v>0.63876651982378851</v>
       </c>
       <c r="Q10">
+        <f t="shared" si="7"/>
+        <v>1696.6261953368432</v>
+      </c>
+      <c r="R10">
         <f t="shared" si="8"/>
-        <v>1696.6261953368432</v>
-      </c>
-      <c r="R10">
+        <v>28.277103255614055</v>
+      </c>
+      <c r="S10" s="53">
         <f t="shared" si="9"/>
-        <v>28.277103255614055</v>
-      </c>
-      <c r="S10" s="53">
+        <v>1901.6634710433007</v>
+      </c>
+      <c r="T10" s="46">
         <f t="shared" si="10"/>
-        <v>1901.6634710433007</v>
-      </c>
-      <c r="T10" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U10">
@@ -22482,7 +22482,7 @@
         <v>1972.8209600863065</v>
       </c>
       <c r="W10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2211.2363731127366</v>
       </c>
     </row>
@@ -22519,11 +22519,11 @@
         <v>39</v>
       </c>
       <c r="K11" s="53">
+        <f t="shared" si="4"/>
+        <v>255905.51181102364</v>
+      </c>
+      <c r="L11" s="53">
         <f t="shared" si="5"/>
-        <v>255905.51181102364</v>
-      </c>
-      <c r="L11" s="53">
-        <f t="shared" si="6"/>
         <v>103563.54180939848</v>
       </c>
       <c r="M11">
@@ -22533,7 +22533,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P11">
@@ -22541,19 +22541,19 @@
         <v>0.51982378854625555</v>
       </c>
       <c r="Q11">
+        <f t="shared" si="7"/>
+        <v>1380.7026968948105</v>
+      </c>
+      <c r="R11">
         <f t="shared" si="8"/>
-        <v>1380.7026968948105</v>
-      </c>
-      <c r="R11">
+        <v>23.011711614913509</v>
+      </c>
+      <c r="S11" s="53">
         <f t="shared" si="9"/>
-        <v>23.011711614913509</v>
-      </c>
-      <c r="S11" s="53">
+        <v>1547.5606178145483</v>
+      </c>
+      <c r="T11" s="46">
         <f t="shared" si="10"/>
-        <v>1547.5606178145483</v>
-      </c>
-      <c r="T11" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U11">
@@ -22565,7 +22565,7 @@
         <v>1605.4680916564428</v>
       </c>
       <c r="W11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>1799.4889105331238</v>
       </c>
     </row>
@@ -22602,11 +22602,11 @@
         <v>48</v>
       </c>
       <c r="K12" s="53">
+        <f t="shared" si="4"/>
+        <v>314960.62992125982</v>
+      </c>
+      <c r="L12" s="53">
         <f t="shared" si="5"/>
-        <v>314960.62992125982</v>
-      </c>
-      <c r="L12" s="53">
-        <f t="shared" si="6"/>
         <v>127462.82068849042</v>
       </c>
       <c r="M12">
@@ -22616,7 +22616,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P12">
@@ -22624,19 +22624,19 @@
         <v>0.70788546255506601</v>
       </c>
       <c r="Q12">
+        <f t="shared" si="7"/>
+        <v>1880.2128505426024</v>
+      </c>
+      <c r="R12">
         <f t="shared" si="8"/>
-        <v>1880.2128505426024</v>
-      </c>
-      <c r="R12">
+        <v>31.336880842376708</v>
+      </c>
+      <c r="S12" s="53">
         <f t="shared" si="9"/>
-        <v>31.336880842376708</v>
-      </c>
-      <c r="S12" s="53">
+        <v>2107.4365735306756</v>
+      </c>
+      <c r="T12" s="46">
         <f t="shared" si="10"/>
-        <v>2107.4365735306756</v>
-      </c>
-      <c r="T12" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U12">
@@ -22648,7 +22648,7 @@
         <v>2186.2937936294384</v>
       </c>
       <c r="W12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2450.507398589556</v>
       </c>
     </row>
@@ -22685,11 +22685,11 @@
         <v>42</v>
       </c>
       <c r="K13" s="53">
+        <f t="shared" si="4"/>
+        <v>275590.55118110235</v>
+      </c>
+      <c r="L13" s="53">
         <f t="shared" si="5"/>
-        <v>275590.55118110235</v>
-      </c>
-      <c r="L13" s="53">
-        <f t="shared" si="6"/>
         <v>111529.96810242911</v>
       </c>
       <c r="M13">
@@ -22699,7 +22699,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P13">
@@ -22707,19 +22707,19 @@
         <v>0.81561674008810581</v>
       </c>
       <c r="Q13">
+        <f t="shared" si="7"/>
+        <v>2166.3576340388959</v>
+      </c>
+      <c r="R13">
         <f t="shared" si="8"/>
-        <v>2166.3576340388959</v>
-      </c>
-      <c r="R13">
+        <v>36.105960567314931</v>
+      </c>
+      <c r="S13" s="53">
         <f t="shared" si="9"/>
-        <v>36.105960567314931</v>
-      </c>
-      <c r="S13" s="53">
+        <v>2428.161954112496</v>
+      </c>
+      <c r="T13" s="46">
         <f t="shared" si="10"/>
-        <v>2428.161954112496</v>
-      </c>
-      <c r="T13" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U13">
@@ -22731,7 +22731,7 @@
         <v>2519.0202527943397</v>
       </c>
       <c r="W13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2823.4438503445353</v>
       </c>
     </row>
@@ -22768,11 +22768,11 @@
         <v>49</v>
       </c>
       <c r="K14" s="53">
+        <f t="shared" si="4"/>
+        <v>321522.3097112861</v>
+      </c>
+      <c r="L14" s="53">
         <f t="shared" si="5"/>
-        <v>321522.3097112861</v>
-      </c>
-      <c r="L14" s="53">
-        <f t="shared" si="6"/>
         <v>130118.29611950065</v>
       </c>
       <c r="M14">
@@ -22782,7 +22782,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P14">
@@ -22790,19 +22790,19 @@
         <v>0.60407488986784141</v>
       </c>
       <c r="Q14">
+        <f t="shared" si="7"/>
+        <v>1604.4818416245837</v>
+      </c>
+      <c r="R14">
         <f t="shared" si="8"/>
-        <v>1604.4818416245837</v>
-      </c>
-      <c r="R14">
+        <v>26.741364027076393</v>
+      </c>
+      <c r="S14" s="53">
         <f t="shared" si="9"/>
-        <v>26.741364027076393</v>
-      </c>
-      <c r="S14" s="53">
+        <v>1798.3834721849146</v>
+      </c>
+      <c r="T14" s="46">
         <f t="shared" si="10"/>
-        <v>1798.3834721849146</v>
-      </c>
-      <c r="T14" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U14">
@@ -22814,7 +22814,7 @@
         <v>1865.6763734609294</v>
       </c>
       <c r="W14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2091.1433631936829</v>
       </c>
     </row>
@@ -22851,11 +22851,11 @@
         <v>54</v>
       </c>
       <c r="K15" s="53">
+        <f t="shared" si="4"/>
+        <v>354330.70866141736</v>
+      </c>
+      <c r="L15" s="53">
         <f t="shared" si="5"/>
-        <v>354330.70866141736</v>
-      </c>
-      <c r="L15" s="53">
-        <f t="shared" si="6"/>
         <v>143395.67327455175</v>
       </c>
       <c r="M15">
@@ -22865,7 +22865,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P15">
@@ -22873,19 +22873,19 @@
         <v>0.67977973568281935</v>
       </c>
       <c r="Q15">
+        <f t="shared" si="7"/>
+        <v>1805.5612979477812</v>
+      </c>
+      <c r="R15">
         <f t="shared" si="8"/>
-        <v>1805.5612979477812</v>
-      </c>
-      <c r="R15">
+        <v>30.092688299129687</v>
+      </c>
+      <c r="S15" s="53">
         <f t="shared" si="9"/>
-        <v>30.092688299129687</v>
-      </c>
-      <c r="S15" s="53">
+        <v>2023.7633808047703</v>
+      </c>
+      <c r="T15" s="46">
         <f t="shared" si="10"/>
-        <v>2023.7633808047703</v>
-      </c>
-      <c r="T15" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U15">
@@ -22897,7 +22897,7 @@
         <v>2099.489671385641</v>
       </c>
       <c r="W15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2353.2129981725957</v>
       </c>
     </row>
@@ -22934,11 +22934,11 @@
         <v>55</v>
       </c>
       <c r="K16" s="53">
+        <f t="shared" si="4"/>
+        <v>360892.38845144358</v>
+      </c>
+      <c r="L16" s="53">
         <f t="shared" si="5"/>
-        <v>360892.38845144358</v>
-      </c>
-      <c r="L16" s="53">
-        <f t="shared" si="6"/>
         <v>146051.14870556194</v>
       </c>
       <c r="M16">
@@ -22948,7 +22948,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P16">
@@ -22956,19 +22956,19 @@
         <v>0.84140969162995594</v>
       </c>
       <c r="Q16">
+        <f t="shared" si="7"/>
+        <v>2234.866229719566</v>
+      </c>
+      <c r="R16">
         <f t="shared" si="8"/>
-        <v>2234.866229719566</v>
-      </c>
-      <c r="R16">
+        <v>37.247770495326101</v>
+      </c>
+      <c r="S16" s="53">
         <f t="shared" si="9"/>
-        <v>37.247770495326101</v>
-      </c>
-      <c r="S16" s="53">
+        <v>2504.9498135811755</v>
+      </c>
+      <c r="T16" s="46">
         <f t="shared" si="10"/>
-        <v>2504.9498135811755</v>
-      </c>
-      <c r="T16" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U16">
@@ -22980,7 +22980,7 @@
         <v>2598.6814025964454</v>
       </c>
       <c r="W16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2912.7320501002255</v>
       </c>
     </row>
@@ -23017,11 +23017,11 @@
         <v>46</v>
       </c>
       <c r="K17" s="53">
+        <f t="shared" si="4"/>
+        <v>301837.27034120733</v>
+      </c>
+      <c r="L17" s="53">
         <f t="shared" si="5"/>
-        <v>301837.27034120733</v>
-      </c>
-      <c r="L17" s="53">
-        <f t="shared" si="6"/>
         <v>122151.86982646998</v>
       </c>
       <c r="M17">
@@ -23031,7 +23031,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P17">
@@ -23039,19 +23039,19 @@
         <v>0.58370044052863435</v>
       </c>
       <c r="Q17">
+        <f t="shared" si="7"/>
+        <v>1550.3653164284947</v>
+      </c>
+      <c r="R17">
         <f t="shared" si="8"/>
-        <v>1550.3653164284947</v>
-      </c>
-      <c r="R17">
+        <v>25.83942194047491</v>
+      </c>
+      <c r="S17" s="53">
         <f t="shared" si="9"/>
-        <v>25.83942194047491</v>
-      </c>
-      <c r="S17" s="53">
+        <v>1737.7269649188781</v>
+      </c>
+      <c r="T17" s="46">
         <f t="shared" si="10"/>
-        <v>1737.7269649188781</v>
-      </c>
-      <c r="T17" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U17">
@@ -23063,7 +23063,7 @@
         <v>1802.7501876650731</v>
       </c>
       <c r="W17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2020.6125478443971</v>
       </c>
     </row>
@@ -23100,11 +23100,11 @@
         <v>44</v>
       </c>
       <c r="K18" s="53">
+        <f t="shared" si="4"/>
+        <v>288713.91076115484</v>
+      </c>
+      <c r="L18" s="53">
         <f t="shared" si="5"/>
-        <v>288713.91076115484</v>
-      </c>
-      <c r="L18" s="53">
-        <f t="shared" si="6"/>
         <v>116840.91896444955</v>
       </c>
       <c r="M18">
@@ -23114,7 +23114,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P18">
@@ -23122,19 +23122,19 @@
         <v>0.78414096916299558</v>
       </c>
       <c r="Q18">
+        <f t="shared" si="7"/>
+        <v>2082.7549156548835</v>
+      </c>
+      <c r="R18">
         <f t="shared" si="8"/>
-        <v>2082.7549156548835</v>
-      </c>
-      <c r="R18">
+        <v>34.71258192758139</v>
+      </c>
+      <c r="S18" s="53">
         <f t="shared" si="9"/>
-        <v>34.71258192758139</v>
-      </c>
-      <c r="S18" s="53">
+        <v>2334.455847211776</v>
+      </c>
+      <c r="T18" s="46">
         <f t="shared" si="10"/>
-        <v>2334.455847211776</v>
-      </c>
-      <c r="T18" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U18">
@@ -23146,7 +23146,7 @@
         <v>2421.8077992783624</v>
       </c>
       <c r="W18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2714.4832718211524</v>
       </c>
     </row>
@@ -23183,11 +23183,11 @@
         <v>50</v>
       </c>
       <c r="K19" s="53">
+        <f t="shared" si="4"/>
+        <v>328083.98950131232</v>
+      </c>
+      <c r="L19" s="53">
         <f t="shared" si="5"/>
-        <v>328083.98950131232</v>
-      </c>
-      <c r="L19" s="53">
-        <f t="shared" si="6"/>
         <v>132773.77155051084</v>
       </c>
       <c r="M19">
@@ -23197,7 +23197,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P19">
@@ -23205,19 +23205,19 @@
         <v>0.6409691629955947</v>
       </c>
       <c r="Q19">
+        <f t="shared" si="7"/>
+        <v>1702.4766304931773</v>
+      </c>
+      <c r="R19">
         <f t="shared" si="8"/>
-        <v>1702.4766304931773</v>
-      </c>
-      <c r="R19">
+        <v>28.374610508219622</v>
+      </c>
+      <c r="S19" s="53">
         <f t="shared" si="9"/>
-        <v>28.374610508219622</v>
-      </c>
-      <c r="S19" s="53">
+        <v>1908.2209312882776</v>
+      </c>
+      <c r="T19" s="46">
         <f t="shared" si="10"/>
-        <v>1908.2209312882776</v>
-      </c>
-      <c r="T19" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U19">
@@ -23229,7 +23229,7 @@
         <v>1979.6237909831559</v>
       </c>
       <c r="W19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2218.86132612347</v>
       </c>
     </row>
@@ -23266,11 +23266,11 @@
         <v>53</v>
       </c>
       <c r="K20" s="53">
+        <f t="shared" si="4"/>
+        <v>347769.02887139108</v>
+      </c>
+      <c r="L20" s="53">
         <f t="shared" si="5"/>
-        <v>347769.02887139108</v>
-      </c>
-      <c r="L20" s="53">
-        <f t="shared" si="6"/>
         <v>140740.19784354151</v>
       </c>
       <c r="M20">
@@ -23280,7 +23280,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P20">
@@ -23288,19 +23288,19 @@
         <v>0.96035242290748901</v>
       </c>
       <c r="Q20">
+        <f t="shared" si="7"/>
+        <v>2550.7897281615992</v>
+      </c>
+      <c r="R20">
         <f t="shared" si="8"/>
-        <v>2550.7897281615992</v>
-      </c>
-      <c r="R20">
+        <v>42.513162136026651</v>
+      </c>
+      <c r="S20" s="53">
         <f t="shared" si="9"/>
-        <v>42.513162136026651</v>
-      </c>
-      <c r="S20" s="53">
+        <v>2859.0526668099283</v>
+      </c>
+      <c r="T20" s="46">
         <f t="shared" si="10"/>
-        <v>2859.0526668099283</v>
-      </c>
-      <c r="T20" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U20">
@@ -23312,7 +23312,7 @@
         <v>2966.0342710263094</v>
       </c>
       <c r="W20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3324.479512679839</v>
       </c>
     </row>
@@ -23349,11 +23349,11 @@
         <v>44</v>
       </c>
       <c r="K21" s="53">
+        <f t="shared" si="4"/>
+        <v>288713.91076115484</v>
+      </c>
+      <c r="L21" s="53">
         <f t="shared" si="5"/>
-        <v>288713.91076115484</v>
-      </c>
-      <c r="L21" s="53">
-        <f t="shared" si="6"/>
         <v>116840.91896444955</v>
       </c>
       <c r="M21">
@@ -23363,7 +23363,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P21">
@@ -23371,19 +23371,19 @@
         <v>0.7537444933920705</v>
       </c>
       <c r="Q21">
+        <f t="shared" si="7"/>
+        <v>2002.0189104974752</v>
+      </c>
+      <c r="R21">
         <f t="shared" si="8"/>
-        <v>2002.0189104974752</v>
-      </c>
-      <c r="R21">
+        <v>33.366981841624586</v>
+      </c>
+      <c r="S21" s="53">
         <f t="shared" si="9"/>
-        <v>33.366981841624586</v>
-      </c>
-      <c r="S21" s="53">
+        <v>2243.962895831095</v>
+      </c>
+      <c r="T21" s="46">
         <f t="shared" si="10"/>
-        <v>2243.962895831095</v>
-      </c>
-      <c r="T21" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U21">
@@ -23395,7 +23395,7 @@
         <v>2327.9287329018416</v>
       </c>
       <c r="W21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2609.2589202730292</v>
       </c>
     </row>
@@ -23432,11 +23432,11 @@
         <v>43</v>
       </c>
       <c r="K22" s="53">
+        <f t="shared" si="4"/>
+        <v>282152.23097112862</v>
+      </c>
+      <c r="L22" s="53">
         <f t="shared" si="5"/>
-        <v>282152.23097112862</v>
-      </c>
-      <c r="L22" s="53">
-        <f t="shared" si="6"/>
         <v>114185.44353343933</v>
       </c>
       <c r="M22">
@@ -23446,7 +23446,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P22">
@@ -23454,19 +23454,19 @@
         <v>0.81057268722466957</v>
       </c>
       <c r="Q22">
+        <f t="shared" si="7"/>
+        <v>2152.9601375308907</v>
+      </c>
+      <c r="R22">
         <f t="shared" si="8"/>
-        <v>2152.9601375308907</v>
-      </c>
-      <c r="R22">
+        <v>35.882668958848178</v>
+      </c>
+      <c r="S22" s="53">
         <f t="shared" si="9"/>
-        <v>35.882668958848178</v>
-      </c>
-      <c r="S22" s="53">
+        <v>2413.1453701514988</v>
+      </c>
+      <c r="T22" s="46">
         <f t="shared" si="10"/>
-        <v>2413.1453701514988</v>
-      </c>
-      <c r="T22" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U22">
@@ -23478,7 +23478,7 @@
         <v>2503.4417700405543</v>
       </c>
       <c r="W22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2805.9827079499555</v>
       </c>
     </row>
@@ -23514,11 +23514,11 @@
         <v>21</v>
       </c>
       <c r="K23" s="53">
+        <f t="shared" si="4"/>
+        <v>137795.27559055117</v>
+      </c>
+      <c r="L23" s="53">
         <f t="shared" si="5"/>
-        <v>137795.27559055117</v>
-      </c>
-      <c r="L23" s="53">
-        <f t="shared" si="6"/>
         <v>55764.984051214553</v>
       </c>
       <c r="M23">
@@ -23528,7 +23528,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P23">
@@ -23536,19 +23536,19 @@
         <v>0.69603524229074887</v>
       </c>
       <c r="Q23">
+        <f t="shared" si="7"/>
+        <v>1848.7375094015258</v>
+      </c>
+      <c r="R23">
         <f t="shared" si="8"/>
-        <v>1848.7375094015258</v>
-      </c>
-      <c r="R23">
+        <v>30.812291823358763</v>
+      </c>
+      <c r="S23" s="53">
         <f t="shared" si="9"/>
-        <v>30.812291823358763</v>
-      </c>
-      <c r="S23" s="53">
+        <v>2072.1574374126999</v>
+      </c>
+      <c r="T23" s="46">
         <f t="shared" si="10"/>
-        <v>2072.1574374126999</v>
-      </c>
-      <c r="T23" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U23">
@@ -23560,7 +23560,7 @@
         <v>2149.6945634043891</v>
       </c>
       <c r="W23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2409.4851513918093</v>
       </c>
     </row>
@@ -23597,11 +23597,11 @@
         <v>47</v>
       </c>
       <c r="K24" s="53">
+        <f t="shared" si="4"/>
+        <v>308398.95013123361</v>
+      </c>
+      <c r="L24" s="53">
         <f t="shared" si="5"/>
-        <v>308398.95013123361</v>
-      </c>
-      <c r="L24" s="53">
-        <f t="shared" si="6"/>
         <v>124807.34525748021</v>
       </c>
       <c r="M24">
@@ -23611,7 +23611,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P24">
@@ -23619,19 +23619,19 @@
         <v>0.93612334801762109</v>
       </c>
       <c r="Q24">
+        <f t="shared" si="7"/>
+        <v>2486.4349414419253</v>
+      </c>
+      <c r="R24">
         <f t="shared" si="8"/>
-        <v>2486.4349414419253</v>
-      </c>
-      <c r="R24">
+        <v>41.440582357365422</v>
+      </c>
+      <c r="S24" s="53">
         <f t="shared" si="9"/>
-        <v>41.440582357365422</v>
-      </c>
-      <c r="S24" s="53">
+        <v>2786.9206041151815</v>
+      </c>
+      <c r="T24" s="46">
         <f t="shared" si="10"/>
-        <v>2786.9206041151815</v>
-      </c>
-      <c r="T24" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U24">
@@ -23643,7 +23643,7 @@
         <v>2891.2031311609662</v>
       </c>
       <c r="W24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3240.6050295617683</v>
       </c>
     </row>
@@ -23680,11 +23680,11 @@
         <v>38</v>
       </c>
       <c r="K25" s="53">
+        <f t="shared" si="4"/>
+        <v>249343.83202099739</v>
+      </c>
+      <c r="L25" s="53">
         <f t="shared" si="5"/>
-        <v>249343.83202099739</v>
-      </c>
-      <c r="L25" s="53">
-        <f t="shared" si="6"/>
         <v>100908.06637838826</v>
       </c>
       <c r="M25">
@@ -23694,7 +23694,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P25">
@@ -23702,19 +23702,19 @@
         <v>0.74889867841409696</v>
       </c>
       <c r="Q25">
+        <f t="shared" si="7"/>
+        <v>1989.1479531535406</v>
+      </c>
+      <c r="R25">
         <f t="shared" si="8"/>
-        <v>1989.1479531535406</v>
-      </c>
-      <c r="R25">
+        <v>33.15246588589234</v>
+      </c>
+      <c r="S25" s="53">
         <f t="shared" si="9"/>
-        <v>33.15246588589234</v>
-      </c>
-      <c r="S25" s="53">
+        <v>2229.5364832921459</v>
+      </c>
+      <c r="T25" s="46">
         <f t="shared" si="10"/>
-        <v>2229.5364832921459</v>
-      </c>
-      <c r="T25" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U25">
@@ -23726,7 +23726,7 @@
         <v>2312.9625049287733</v>
       </c>
       <c r="W25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2592.4840236494156</v>
       </c>
     </row>
@@ -23763,11 +23763,11 @@
         <v>44</v>
       </c>
       <c r="K26" s="53">
+        <f t="shared" si="4"/>
+        <v>288713.91076115484</v>
+      </c>
+      <c r="L26" s="53">
         <f t="shared" si="5"/>
-        <v>288713.91076115484</v>
-      </c>
-      <c r="L26" s="53">
-        <f t="shared" si="6"/>
         <v>116840.91896444955</v>
       </c>
       <c r="M26">
@@ -23777,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P26">
@@ -23785,19 +23785,19 @@
         <v>0.68502202643171806</v>
       </c>
       <c r="Q26">
+        <f t="shared" si="7"/>
+        <v>1819.4853336198562</v>
+      </c>
+      <c r="R26">
         <f t="shared" si="8"/>
-        <v>1819.4853336198562</v>
-      </c>
-      <c r="R26">
+        <v>30.324755560330935</v>
+      </c>
+      <c r="S26" s="53">
         <f t="shared" si="9"/>
-        <v>30.324755560330935</v>
-      </c>
-      <c r="S26" s="53">
+        <v>2039.3701361878157</v>
+      </c>
+      <c r="T26" s="46">
         <f t="shared" si="10"/>
-        <v>2039.3701361878157</v>
-      </c>
-      <c r="T26" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U26">
@@ -23809,7 +23809,7 @@
         <v>2115.6804089201428</v>
       </c>
       <c r="W26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2371.3603863381418</v>
       </c>
     </row>
@@ -23846,11 +23846,11 @@
         <v>46</v>
       </c>
       <c r="K27" s="53">
+        <f t="shared" si="4"/>
+        <v>301837.27034120733</v>
+      </c>
+      <c r="L27" s="53">
         <f t="shared" si="5"/>
-        <v>301837.27034120733</v>
-      </c>
-      <c r="L27" s="53">
-        <f t="shared" si="6"/>
         <v>122151.86982646998</v>
       </c>
       <c r="M27">
@@ -23860,7 +23860,7 @@
         <v>0</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P27">
@@ -23868,19 +23868,19 @@
         <v>0.75612334801762104</v>
       </c>
       <c r="Q27">
+        <f t="shared" si="7"/>
+        <v>2008.3373804663156</v>
+      </c>
+      <c r="R27">
         <f t="shared" si="8"/>
-        <v>2008.3373804663156</v>
-      </c>
-      <c r="R27">
+        <v>33.472289674438592</v>
+      </c>
+      <c r="S27" s="53">
         <f t="shared" si="9"/>
-        <v>33.472289674438592</v>
-      </c>
-      <c r="S27" s="53">
+        <v>2251.0449528956697</v>
+      </c>
+      <c r="T27" s="46">
         <f t="shared" si="10"/>
-        <v>2251.0449528956697</v>
-      </c>
-      <c r="T27" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U27">
@@ -23892,7 +23892,7 @@
         <v>2335.2757902704388</v>
       </c>
       <c r="W27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2617.493869524621</v>
       </c>
     </row>
@@ -23929,11 +23929,11 @@
         <v>49</v>
       </c>
       <c r="K28" s="53">
+        <f t="shared" si="4"/>
+        <v>321522.3097112861</v>
+      </c>
+      <c r="L28" s="53">
         <f t="shared" si="5"/>
-        <v>321522.3097112861</v>
-      </c>
-      <c r="L28" s="53">
-        <f t="shared" si="6"/>
         <v>130118.29611950065</v>
       </c>
       <c r="M28">
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="O28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P28">
@@ -23951,19 +23951,19 @@
         <v>0.82138766519823792</v>
       </c>
       <c r="Q28">
+        <f t="shared" si="7"/>
+        <v>2181.6857741484905</v>
+      </c>
+      <c r="R28">
         <f t="shared" si="8"/>
-        <v>2181.6857741484905</v>
-      </c>
-      <c r="R28">
+        <v>36.361429569141507</v>
+      </c>
+      <c r="S28" s="53">
         <f t="shared" si="9"/>
-        <v>36.361429569141507</v>
-      </c>
-      <c r="S28" s="53">
+        <v>2445.3424999543354</v>
+      </c>
+      <c r="T28" s="46">
         <f t="shared" si="10"/>
-        <v>2445.3424999543354</v>
-      </c>
-      <c r="T28" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U28">
@@ -23975,7 +23975,7 @@
         <v>2536.8436697440848</v>
       </c>
       <c r="W28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2843.4212272326572</v>
       </c>
     </row>
@@ -24012,11 +24012,11 @@
         <v>56</v>
       </c>
       <c r="K29" s="53">
+        <f t="shared" si="4"/>
+        <v>367454.06824146985</v>
+      </c>
+      <c r="L29" s="53">
         <f t="shared" si="5"/>
-        <v>367454.06824146985</v>
-      </c>
-      <c r="L29" s="53">
-        <f t="shared" si="6"/>
         <v>148706.62413657218</v>
       </c>
       <c r="M29">
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="O29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P29">
@@ -24034,19 +24034,19 @@
         <v>0.9625550660792952</v>
       </c>
       <c r="Q29">
+        <f t="shared" si="7"/>
+        <v>2556.640163317933</v>
+      </c>
+      <c r="R29">
         <f t="shared" si="8"/>
-        <v>2556.640163317933</v>
-      </c>
-      <c r="R29">
+        <v>42.610669388632218</v>
+      </c>
+      <c r="S29" s="53">
         <f t="shared" si="9"/>
-        <v>42.610669388632218</v>
-      </c>
-      <c r="S29" s="53">
+        <v>2865.6101270549048</v>
+      </c>
+      <c r="T29" s="46">
         <f t="shared" si="10"/>
-        <v>2865.6101270549048</v>
-      </c>
-      <c r="T29" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U29">
@@ -24058,7 +24058,7 @@
         <v>2972.8371019231586</v>
       </c>
       <c r="W29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3332.1044656905719</v>
       </c>
     </row>
@@ -24095,11 +24095,11 @@
         <v>47</v>
       </c>
       <c r="K30" s="53">
+        <f t="shared" si="4"/>
+        <v>308398.95013123361</v>
+      </c>
+      <c r="L30" s="53">
         <f t="shared" si="5"/>
-        <v>308398.95013123361</v>
-      </c>
-      <c r="L30" s="53">
-        <f t="shared" si="6"/>
         <v>124807.34525748021</v>
       </c>
       <c r="M30">
@@ -24109,7 +24109,7 @@
         <v>0</v>
       </c>
       <c r="O30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P30">
@@ -24117,19 +24117,19 @@
         <v>0.92411894273127759</v>
       </c>
       <c r="Q30">
+        <f t="shared" si="7"/>
+        <v>2454.550069839906</v>
+      </c>
+      <c r="R30">
         <f t="shared" si="8"/>
-        <v>2454.550069839906</v>
-      </c>
-      <c r="R30">
+        <v>40.909167830665098</v>
+      </c>
+      <c r="S30" s="53">
         <f t="shared" si="9"/>
-        <v>40.909167830665098</v>
-      </c>
-      <c r="S30" s="53">
+        <v>2751.1824457800585</v>
+      </c>
+      <c r="T30" s="46">
         <f t="shared" si="10"/>
-        <v>2751.1824457800585</v>
-      </c>
-      <c r="T30" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U30">
@@ -24141,7 +24141,7 @@
         <v>2854.127702773138</v>
       </c>
       <c r="W30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3199.0490356532719</v>
       </c>
     </row>
@@ -24178,11 +24178,11 @@
         <v>50</v>
       </c>
       <c r="K31" s="53">
+        <f t="shared" si="4"/>
+        <v>328083.98950131232</v>
+      </c>
+      <c r="L31" s="53">
         <f t="shared" si="5"/>
-        <v>328083.98950131232</v>
-      </c>
-      <c r="L31" s="53">
-        <f t="shared" si="6"/>
         <v>132773.77155051084</v>
       </c>
       <c r="M31">
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P31">
@@ -24200,19 +24200,19 @@
         <v>0.97740088105726874</v>
       </c>
       <c r="Q31">
+        <f t="shared" si="7"/>
+        <v>2596.0720962716236</v>
+      </c>
+      <c r="R31">
         <f t="shared" si="8"/>
-        <v>2596.0720962716236</v>
-      </c>
-      <c r="R31">
+        <v>43.267868271193727</v>
+      </c>
+      <c r="S31" s="53">
         <f t="shared" si="9"/>
-        <v>43.267868271193727</v>
-      </c>
-      <c r="S31" s="53">
+        <v>2909.8074091060489</v>
+      </c>
+      <c r="T31" s="46">
         <f t="shared" si="10"/>
-        <v>2909.8074091060489</v>
-      </c>
-      <c r="T31" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U31">
@@ -24224,7 +24224,7 @@
         <v>3018.6881821679231</v>
       </c>
       <c r="W31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3383.4966489829162</v>
       </c>
     </row>
@@ -24260,11 +24260,11 @@
         <v>41</v>
       </c>
       <c r="K32" s="53">
+        <f t="shared" si="4"/>
+        <v>269028.87139107613</v>
+      </c>
+      <c r="L32" s="53">
         <f t="shared" si="5"/>
-        <v>269028.87139107613</v>
-      </c>
-      <c r="L32" s="53">
-        <f t="shared" si="6"/>
         <v>108874.49267141891</v>
       </c>
       <c r="M32">
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P32">
@@ -24282,19 +24282,19 @@
         <v>0.57927312775330397</v>
       </c>
       <c r="Q32">
+        <f t="shared" si="7"/>
+        <v>1538.6059417642637</v>
+      </c>
+      <c r="R32">
         <f t="shared" si="8"/>
-        <v>1538.6059417642637</v>
-      </c>
-      <c r="R32">
+        <v>25.643432362737727</v>
+      </c>
+      <c r="S32" s="53">
         <f t="shared" si="9"/>
-        <v>25.643432362737727</v>
-      </c>
-      <c r="S32" s="53">
+        <v>1724.5464698264748</v>
+      </c>
+      <c r="T32" s="46">
         <f t="shared" si="10"/>
-        <v>1724.5464698264748</v>
-      </c>
-      <c r="T32" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U32">
@@ -24306,7 +24306,7 @@
         <v>1789.0764975624063</v>
       </c>
       <c r="W32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2005.2863922928229</v>
       </c>
     </row>
@@ -24343,11 +24343,11 @@
         <v>42</v>
       </c>
       <c r="K33" s="53">
+        <f t="shared" si="4"/>
+        <v>275590.55118110235</v>
+      </c>
+      <c r="L33" s="53">
         <f t="shared" si="5"/>
-        <v>275590.55118110235</v>
-      </c>
-      <c r="L33" s="53">
-        <f t="shared" si="6"/>
         <v>111529.96810242911</v>
       </c>
       <c r="M33">
@@ -24357,7 +24357,7 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P33">
@@ -24365,19 +24365,19 @@
         <v>0.85314977973568273</v>
       </c>
       <c r="Q33">
+        <f t="shared" si="7"/>
+        <v>2266.0490491028258</v>
+      </c>
+      <c r="R33">
         <f t="shared" si="8"/>
-        <v>2266.0490491028258</v>
-      </c>
-      <c r="R33">
+        <v>37.767484151713766</v>
+      </c>
+      <c r="S33" s="53">
         <f t="shared" si="9"/>
-        <v>37.767484151713766</v>
-      </c>
-      <c r="S33" s="53">
+        <v>2539.9010766869023</v>
+      </c>
+      <c r="T33" s="46">
         <f t="shared" si="10"/>
-        <v>2539.9010766869023</v>
-      </c>
-      <c r="T33" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U33">
@@ -24389,7 +24389,7 @@
         <v>2634.9404912766522</v>
       </c>
       <c r="W33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2953.3730496474354</v>
       </c>
     </row>
@@ -24426,11 +24426,11 @@
         <v>48</v>
       </c>
       <c r="K34" s="53">
+        <f t="shared" si="4"/>
+        <v>314960.62992125982</v>
+      </c>
+      <c r="L34" s="53">
         <f t="shared" si="5"/>
-        <v>314960.62992125982</v>
-      </c>
-      <c r="L34" s="53">
-        <f t="shared" si="6"/>
         <v>127462.82068849042</v>
       </c>
       <c r="M34">
@@ -24440,7 +24440,7 @@
         <v>0</v>
       </c>
       <c r="O34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P34">
@@ -24448,19 +24448,19 @@
         <v>0.80973568281938324</v>
       </c>
       <c r="Q34">
+        <f t="shared" si="7"/>
+        <v>2150.736972171484</v>
+      </c>
+      <c r="R34">
         <f t="shared" si="8"/>
-        <v>2150.736972171484</v>
-      </c>
-      <c r="R34">
+        <v>35.845616202858068</v>
+      </c>
+      <c r="S34" s="53">
         <f t="shared" si="9"/>
-        <v>35.845616202858068</v>
-      </c>
-      <c r="S34" s="53">
+        <v>2410.6535352584078</v>
+      </c>
+      <c r="T34" s="46">
         <f t="shared" si="10"/>
-        <v>2410.6535352584078</v>
-      </c>
-      <c r="T34" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U34">
@@ -24472,7 +24472,7 @@
         <v>2500.8566942997518</v>
       </c>
       <c r="W34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2803.0852258058767</v>
       </c>
     </row>
@@ -24509,11 +24509,11 @@
         <v>50</v>
       </c>
       <c r="K35" s="53">
+        <f t="shared" si="4"/>
+        <v>328083.98950131232</v>
+      </c>
+      <c r="L35" s="53">
         <f t="shared" si="5"/>
-        <v>328083.98950131232</v>
-      </c>
-      <c r="L35" s="53">
-        <f t="shared" si="6"/>
         <v>132773.77155051084</v>
       </c>
       <c r="M35">
@@ -24523,7 +24523,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P35">
@@ -24531,19 +24531,19 @@
         <v>0.7180616740088106</v>
       </c>
       <c r="Q35">
+        <f t="shared" si="7"/>
+        <v>1907.2418609648653</v>
+      </c>
+      <c r="R35">
         <f t="shared" si="8"/>
-        <v>1907.2418609648653</v>
-      </c>
-      <c r="R35">
+        <v>31.787364349414421</v>
+      </c>
+      <c r="S35" s="53">
         <f t="shared" si="9"/>
-        <v>31.787364349414421</v>
-      </c>
-      <c r="S35" s="53">
+        <v>2137.7320398624693</v>
+      </c>
+      <c r="T35" s="46">
         <f t="shared" si="10"/>
-        <v>2137.7320398624693</v>
-      </c>
-      <c r="T35" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U35">
@@ -24555,7 +24555,7 @@
         <v>2217.7228723728826</v>
       </c>
       <c r="W35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2485.7346814991456</v>
       </c>
     </row>
@@ -24592,11 +24592,11 @@
         <v>56</v>
       </c>
       <c r="K36" s="53">
+        <f t="shared" si="4"/>
+        <v>367454.06824146985</v>
+      </c>
+      <c r="L36" s="53">
         <f t="shared" si="5"/>
-        <v>367454.06824146985</v>
-      </c>
-      <c r="L36" s="53">
-        <f t="shared" si="6"/>
         <v>148706.62413657218</v>
       </c>
       <c r="M36">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P36">
@@ -24614,19 +24614,19 @@
         <v>0.86766519823788546</v>
       </c>
       <c r="Q36">
+        <f t="shared" si="7"/>
+        <v>2304.6034167830667</v>
+      </c>
+      <c r="R36">
         <f t="shared" si="8"/>
-        <v>2304.6034167830667</v>
-      </c>
-      <c r="R36">
+        <v>38.410056946384444</v>
+      </c>
+      <c r="S36" s="53">
         <f t="shared" si="9"/>
-        <v>38.410056946384444</v>
-      </c>
-      <c r="S36" s="53">
+        <v>2583.1147397013001</v>
+      </c>
+      <c r="T36" s="46">
         <f t="shared" si="10"/>
-        <v>2583.1147397013001</v>
-      </c>
-      <c r="T36" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U36">
@@ -24638,7 +24638,7 @@
         <v>2679.7711468868893</v>
       </c>
       <c r="W36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3003.6214899881697</v>
       </c>
     </row>
@@ -24675,11 +24675,11 @@
         <v>45</v>
       </c>
       <c r="K37" s="53">
+        <f t="shared" si="4"/>
+        <v>295275.59055118111</v>
+      </c>
+      <c r="L37" s="53">
         <f t="shared" si="5"/>
-        <v>295275.59055118111</v>
-      </c>
-      <c r="L37" s="53">
-        <f t="shared" si="6"/>
         <v>119496.39439545978</v>
       </c>
       <c r="M37">
@@ -24689,7 +24689,7 @@
         <v>0</v>
       </c>
       <c r="O37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P37">
@@ -24697,19 +24697,19 @@
         <v>0.6277533039647577</v>
       </c>
       <c r="Q37">
+        <f t="shared" si="7"/>
+        <v>1667.3740195551736</v>
+      </c>
+      <c r="R37">
         <f t="shared" si="8"/>
-        <v>1667.3740195551736</v>
-      </c>
-      <c r="R37">
+        <v>27.789566992586227</v>
+      </c>
+      <c r="S37" s="53">
         <f t="shared" si="9"/>
-        <v>27.789566992586227</v>
-      </c>
-      <c r="S37" s="53">
+        <v>1868.8761698184162</v>
+      </c>
+      <c r="T37" s="46">
         <f t="shared" si="10"/>
-        <v>1868.8761698184162</v>
-      </c>
-      <c r="T37" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U37">
@@ -24721,7 +24721,7 @@
         <v>1938.80680560206</v>
       </c>
       <c r="W37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2173.1116080590687</v>
       </c>
     </row>
@@ -24758,11 +24758,11 @@
         <v>58</v>
       </c>
       <c r="K38" s="53">
+        <f t="shared" si="4"/>
+        <v>380577.42782152235</v>
+      </c>
+      <c r="L38" s="53">
         <f t="shared" si="5"/>
-        <v>380577.42782152235</v>
-      </c>
-      <c r="L38" s="53">
-        <f t="shared" si="6"/>
         <v>154017.57499859261</v>
       </c>
       <c r="M38">
@@ -24772,7 +24772,7 @@
         <v>0</v>
       </c>
       <c r="O38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P38">
@@ -24780,19 +24780,19 @@
         <v>0.94493392070484583</v>
       </c>
       <c r="Q38">
+        <f t="shared" si="7"/>
+        <v>2509.8366820672613</v>
+      </c>
+      <c r="R38">
         <f t="shared" si="8"/>
-        <v>2509.8366820672613</v>
-      </c>
-      <c r="R38">
+        <v>41.830611367787689</v>
+      </c>
+      <c r="S38" s="53">
         <f t="shared" si="9"/>
-        <v>41.830611367787689</v>
-      </c>
-      <c r="S38" s="53">
+        <v>2813.1504450950897</v>
+      </c>
+      <c r="T38" s="46">
         <f t="shared" si="10"/>
-        <v>2813.1504450950897</v>
-      </c>
-      <c r="T38" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U38">
@@ -24804,7 +24804,7 @@
         <v>2918.4144547483638</v>
       </c>
       <c r="W38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3271.1048416047033</v>
       </c>
     </row>
@@ -24841,11 +24841,11 @@
         <v>35</v>
       </c>
       <c r="K39" s="53">
+        <f t="shared" si="4"/>
+        <v>229658.79265091865</v>
+      </c>
+      <c r="L39" s="53">
         <f t="shared" si="5"/>
-        <v>229658.79265091865</v>
-      </c>
-      <c r="L39" s="53">
-        <f t="shared" si="6"/>
         <v>92941.640085357605</v>
       </c>
       <c r="M39">
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P39">
@@ -24863,19 +24863,19 @@
         <v>0.91167400881057259</v>
       </c>
       <c r="Q39">
+        <f t="shared" si="7"/>
+        <v>2421.4951112066187</v>
+      </c>
+      <c r="R39">
         <f t="shared" si="8"/>
-        <v>2421.4951112066187</v>
-      </c>
-      <c r="R39">
+        <v>40.358251853443647</v>
+      </c>
+      <c r="S39" s="53">
         <f t="shared" si="9"/>
-        <v>40.358251853443647</v>
-      </c>
-      <c r="S39" s="53">
+        <v>2714.1327953959385</v>
+      </c>
+      <c r="T39" s="46">
         <f t="shared" si="10"/>
-        <v>2714.1327953959385</v>
-      </c>
-      <c r="T39" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U39">
@@ -24887,7 +24887,7 @@
         <v>2815.691708205939</v>
       </c>
       <c r="W39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>3155.9680511426263</v>
       </c>
     </row>
@@ -24924,11 +24924,11 @@
         <v>61</v>
       </c>
       <c r="K40" s="53">
+        <f t="shared" si="4"/>
+        <v>400262.46719160106</v>
+      </c>
+      <c r="L40" s="53">
         <f t="shared" si="5"/>
-        <v>400262.46719160106</v>
-      </c>
-      <c r="L40" s="53">
-        <f t="shared" si="6"/>
         <v>161984.00129162325</v>
       </c>
       <c r="M40">
@@ -24938,7 +24938,7 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P40">
@@ -24946,19 +24946,19 @@
         <v>0.74367841409691626</v>
       </c>
       <c r="Q40">
+        <f t="shared" si="7"/>
+        <v>1975.282421833029</v>
+      </c>
+      <c r="R40">
         <f t="shared" si="8"/>
-        <v>1975.282421833029</v>
-      </c>
-      <c r="R40">
+        <v>32.921373697217149</v>
+      </c>
+      <c r="S40" s="53">
         <f t="shared" si="9"/>
-        <v>32.921373697217149</v>
-      </c>
-      <c r="S40" s="53">
+        <v>2213.9953025115506</v>
+      </c>
+      <c r="T40" s="46">
         <f t="shared" si="10"/>
-        <v>2213.9953025115506</v>
-      </c>
-      <c r="T40" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U40">
@@ -24970,7 +24970,7 @@
         <v>2296.8397957032403</v>
       </c>
       <c r="W40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2574.4128850139768</v>
       </c>
     </row>
@@ -25007,11 +25007,11 @@
         <v>44</v>
       </c>
       <c r="K41" s="53">
+        <f t="shared" si="4"/>
+        <v>288713.91076115484</v>
+      </c>
+      <c r="L41" s="53">
         <f t="shared" si="5"/>
-        <v>288713.91076115484</v>
-      </c>
-      <c r="L41" s="53">
-        <f t="shared" si="6"/>
         <v>116840.91896444955</v>
       </c>
       <c r="M41">
@@ -25021,7 +25021,7 @@
         <v>0</v>
       </c>
       <c r="O41">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>16.399999999999999</v>
       </c>
       <c r="P41">
@@ -25029,19 +25029,19 @@
         <v>0.62621145374449338</v>
       </c>
       <c r="Q41">
+        <f t="shared" si="7"/>
+        <v>1663.2787149457399</v>
+      </c>
+      <c r="R41">
         <f t="shared" si="8"/>
-        <v>1663.2787149457399</v>
-      </c>
-      <c r="R41">
+        <v>27.721311915762332</v>
+      </c>
+      <c r="S41" s="53">
         <f t="shared" si="9"/>
-        <v>27.721311915762332</v>
-      </c>
-      <c r="S41" s="53">
+        <v>1864.2859476469325</v>
+      </c>
+      <c r="T41" s="46">
         <f t="shared" si="10"/>
-        <v>1864.2859476469325</v>
-      </c>
-      <c r="T41" s="46">
-        <f t="shared" si="11"/>
         <v>1.1627905813953487</v>
       </c>
       <c r="U41">
@@ -25053,7 +25053,7 @@
         <v>1934.0448239742655</v>
       </c>
       <c r="W41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="11"/>
         <v>2167.7741409515552</v>
       </c>
     </row>
